--- a/AAII_Financials/Quarterly/SEMUF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEMUF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>SEMUF</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,93 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>375200</v>
+      </c>
+      <c r="E8" s="3">
         <v>272000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>145200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>420400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>311700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>263200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>499800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>322700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>155200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -772,8 +779,11 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,8 +811,11 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,8 +827,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -843,8 +857,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,66 +889,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>69500</v>
+      </c>
+      <c r="E14" s="3">
         <v>11000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>58100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>9400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>72700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>83500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>94500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-17100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-153800</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>76500</v>
+      </c>
+      <c r="E15" s="3">
         <v>78900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>61900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>76300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>68600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>73300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>73700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>65500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,66 +966,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>427400</v>
+      </c>
+      <c r="E17" s="3">
         <v>399500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>104100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>496900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>281900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>294100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>527700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>306100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-127500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>41100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-76500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>29800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-30900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-27900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>16600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,8 +1044,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1026,22 +1060,25 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>33900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>34300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-118900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>75800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1069,8 +1106,11 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1083,81 +1123,90 @@
       <c r="F22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
         <v>33900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>34300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>32100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>24200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-127600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>41100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-76400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>29800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-30900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-178900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>68200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>143900</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-14700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,66 +1234,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-126100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>37600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-78100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>44500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-32200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-180700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>71000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>141900</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-114800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>41900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-65400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>89400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-146900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>73300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>167500</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,37 +1330,43 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-130200</v>
+      </c>
+      <c r="E29" s="3">
         <v>5700</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-93000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>87200</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-24300</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-1500</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1394,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,8 +1426,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1374,51 +1444,57 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-33900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-34300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>118900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-75800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-156600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-109200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-51100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>21800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>65000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-146900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>73300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>167500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,71 +1522,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-156600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-109200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-51100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>21800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>65000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-146900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>73300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>167500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1607,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,240 +1621,265 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>121900</v>
+      </c>
+      <c r="E41" s="3">
         <v>102100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>142600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>174400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>176300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>160600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>233400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>374400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>221800</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E42" s="3">
         <v>30300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>10100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>9600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>16300</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="D43" s="3">
+        <v>85800</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3">
         <v>83400</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3">
         <v>110400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>119100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>163200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>348200</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3">
+      <c r="D44" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
         <v>19400</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3">
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3">
         <v>20600</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>183900</v>
+      </c>
+      <c r="E45" s="3">
         <v>371700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>372300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>490900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>603500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>419300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>477100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>172500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>78700</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>423800</v>
+      </c>
+      <c r="E46" s="3">
         <v>504100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>627800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>674900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>703300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>699100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>710500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>710100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>675200</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1382300</v>
+      </c>
+      <c r="E47" s="3">
         <v>1555100</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1341800</v>
       </c>
       <c r="F47" s="3">
         <v>1341800</v>
       </c>
       <c r="G47" s="3">
+        <v>1341800</v>
+      </c>
+      <c r="H47" s="3">
         <v>1365500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1306400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1202400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1249800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1187400</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1850200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1809800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1964700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2227300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2237200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2177600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2324200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2156200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1887100</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1796,8 +1907,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +1939,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,37 +1971,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>214700</v>
+      </c>
+      <c r="E52" s="3">
         <v>164300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>152500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>141300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>192000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>129600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>128700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>182300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>174900</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,37 +2035,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3870900</v>
+      </c>
+      <c r="E54" s="3">
         <v>4033300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4086800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4385200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4420700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4312700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4365900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4298400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3924500</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2083,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,182 +2097,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>64500</v>
+      </c>
+      <c r="E57" s="3">
         <v>165500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>68100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>222100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>212200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>297100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>105000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>179600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>190900</v>
+      </c>
+      <c r="E58" s="3">
         <v>140900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>136100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>187000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>172100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>175000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>165500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>261500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>475900</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>189700</v>
+      </c>
+      <c r="E59" s="3">
         <v>90000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>200000</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
         <v>114600</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
         <v>166900</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>126100</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>445100</v>
+      </c>
+      <c r="E60" s="3">
         <v>396300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>404200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>409100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>384300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>472100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>437400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>441100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>647900</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1461900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1524400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1444500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1542500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1694700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1534300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1583700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1537100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1030400</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>219400</v>
+      </c>
+      <c r="E62" s="3">
         <v>239900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>187200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>313300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>245500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>194400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>216500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>120400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>101100</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2319,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2351,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,37 +2383,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2216500</v>
+      </c>
+      <c r="E66" s="3">
         <v>2268800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2165800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2416300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2473300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2384700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2455000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2271500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1956800</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2431,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2461,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,8 +2493,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2357,8 +2525,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,37 +2557,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1635500</v>
+      </c>
+      <c r="E72" s="3">
         <v>1738600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1897800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1941400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1931000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1866000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1863100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2011000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1937700</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +2621,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +2653,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,37 +2685,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1654400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1764500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1920900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1968900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1947500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1928000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1910900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2027000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1967700</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,71 +2749,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-156600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-109200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-51100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>21800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>65000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-146900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>73300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>167500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,8 +2834,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2665,8 +2864,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +2896,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +2928,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +2960,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +2992,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,8 +3024,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2839,8 +3056,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,8 +3072,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2881,8 +3102,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3134,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,8 +3166,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2968,8 +3198,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,8 +3214,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3010,8 +3244,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3276,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +3308,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,8 +3340,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3126,8 +3372,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3155,8 +3404,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3182,6 +3434,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEMUF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEMUF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>SEMUF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,100 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>224200</v>
+      </c>
+      <c r="E8" s="3">
         <v>375200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>272000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>145200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>420400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>311700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>263200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>499800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>322700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>155200</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -782,8 +789,11 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,8 +824,11 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -828,8 +841,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -860,8 +874,11 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,72 +909,81 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>252700</v>
+      </c>
+      <c r="E14" s="3">
         <v>69500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>11000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>58100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>9400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>72700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>83500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>94500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-17100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-153800</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>65800</v>
+      </c>
+      <c r="E15" s="3">
         <v>76500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>78900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>61900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>76300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>68600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>73300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>73700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>65500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -967,72 +993,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>702000</v>
+      </c>
+      <c r="E17" s="3">
         <v>427400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>399500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>104100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>496900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>281900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>294100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>527700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>306100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-477800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-52200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-127500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>41100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-76500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>29800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-30900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-27900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1045,8 +1078,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1063,22 +1097,25 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>33900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>34300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-118900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>75800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1109,8 +1146,11 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1126,87 +1166,96 @@
       <c r="G22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
         <v>33900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>34300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>32100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>24200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-477800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-52200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-127600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>41100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-76400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>29800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-30900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-178900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>68200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>143900</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-14700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1237,72 +1286,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-478400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-49000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-126100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>37600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-78100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>44500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-32200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-180700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>71000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>141900</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-397300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-26400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-114800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>41900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-65400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>89400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-146900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>73300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>167500</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1333,40 +1391,46 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E29" s="3">
         <v>-130200</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>5700</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-93000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>87200</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-24300</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-1500</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1397,8 +1461,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1429,8 +1496,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1447,54 +1517,60 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-33900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-34300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>118900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-75800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-397700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-156600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-109200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-51100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>21800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>65000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-146900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>73300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>167500</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1525,77 +1601,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-397700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-156600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-109200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-51100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>21800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>65000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-146900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>73300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>167500</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1608,8 +1693,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1622,264 +1708,289 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100800</v>
+      </c>
+      <c r="E41" s="3">
         <v>121900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>102100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>142600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>174400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>176300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>160600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>233400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>374400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>221800</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>95300</v>
+      </c>
+      <c r="E42" s="3">
         <v>12800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>30300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>10100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>9600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>16300</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3">
         <v>85800</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="F43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
         <v>83400</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
         <v>110400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>119100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>163200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>348200</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
         <v>19300</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3">
         <v>19400</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
         <v>20600</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>226900</v>
+      </c>
+      <c r="E45" s="3">
         <v>183900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>371700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>372300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>490900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>603500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>419300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>477100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>172500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>78700</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>422900</v>
+      </c>
+      <c r="E46" s="3">
         <v>423800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>504100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>627800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>674900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>703300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>699100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>710500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>710100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>675200</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1212100</v>
+      </c>
+      <c r="E47" s="3">
         <v>1382300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1555100</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1341800</v>
       </c>
       <c r="G47" s="3">
         <v>1341800</v>
       </c>
       <c r="H47" s="3">
+        <v>1341800</v>
+      </c>
+      <c r="I47" s="3">
         <v>1365500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1306400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1202400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1249800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1187400</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1575800</v>
+      </c>
+      <c r="E48" s="3">
         <v>1850200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1809800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1964700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2227300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2237200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2177600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2324200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2156200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1887100</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1910,8 +2021,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1942,8 +2056,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1974,40 +2091,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E52" s="3">
         <v>214700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>164300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>152500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>141300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>192000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>129600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>128700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>182300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>174900</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2038,40 +2161,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3252900</v>
+      </c>
+      <c r="E54" s="3">
         <v>3870900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4033300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4086800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4385200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4420700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4312700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4365900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4298400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3924500</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2084,8 +2213,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2098,200 +2228,219 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>158300</v>
+      </c>
+      <c r="E57" s="3">
         <v>64500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>165500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>68100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>222100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>212200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>297100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>105000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>179600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>503400</v>
+      </c>
+      <c r="E58" s="3">
         <v>190900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>140900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>136100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>187000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>172100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>175000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>165500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>261500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>475900</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>77800</v>
+      </c>
+      <c r="E59" s="3">
         <v>189700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>90000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>200000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
         <v>114600</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>166900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>126100</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>739400</v>
+      </c>
+      <c r="E60" s="3">
         <v>445100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>396300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>404200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>409100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>384300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>472100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>437400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>441100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>647900</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1127900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1461900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1524400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1444500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1542500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1694700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1534300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1583700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1537100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1030400</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>143100</v>
+      </c>
+      <c r="E62" s="3">
         <v>219400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>239900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>187200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>313300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>245500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>194400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>216500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>120400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>101100</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2322,8 +2471,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2354,8 +2506,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2386,40 +2541,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2011300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2216500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2268800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2165800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2416300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2473300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2384700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2455000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2271500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1956800</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2432,8 +2593,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2464,8 +2626,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2496,8 +2661,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2528,8 +2696,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2560,40 +2731,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1206100</v>
+      </c>
+      <c r="E72" s="3">
         <v>1635500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1738600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1897800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1941400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1931000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1866000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1863100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2011000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1937700</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2624,8 +2801,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2656,8 +2836,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2688,40 +2871,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1241600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1654400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1764500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1920900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1968900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1947500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1928000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1910900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2027000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1967700</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2752,77 +2941,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-397700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-156600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-109200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-51100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>21800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>65000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-146900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>73300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>167500</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2835,8 +3033,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2867,8 +3066,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2899,8 +3101,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2931,8 +3136,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2963,8 +3171,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2995,8 +3206,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3027,8 +3241,11 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3059,8 +3276,11 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3073,8 +3293,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3105,8 +3326,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3137,8 +3361,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3169,8 +3396,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3201,8 +3431,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3215,8 +3448,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3247,8 +3481,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3279,8 +3516,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3311,8 +3551,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3343,8 +3586,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3375,8 +3621,11 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3407,8 +3656,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3437,6 +3689,9 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEMUF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEMUF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>SEMUF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,107 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>301300</v>
+      </c>
+      <c r="E8" s="3">
         <v>224200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>375200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>272000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>145200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>420400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>311700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>263200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>499800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>322700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>155200</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -792,8 +799,11 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,8 +837,11 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,8 +855,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -877,8 +891,11 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -912,78 +929,87 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E14" s="3">
         <v>252700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>69500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>11000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>58100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>9400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>72700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>83500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>94500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-17100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-153800</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E15" s="3">
         <v>65800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>76500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>78900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>61900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>76300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>68600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>73300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>73700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>65500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -994,78 +1020,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>397900</v>
+      </c>
+      <c r="E17" s="3">
         <v>702000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>427400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>399500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>104100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>496900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>281900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>294100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>527700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>306100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-96600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-477800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-52200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-127500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>41100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-76500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>29800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-30900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-27900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1079,8 +1112,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1100,22 +1134,25 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>33900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>34300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-118900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>75800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1149,8 +1186,11 @@
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1169,93 +1209,102 @@
       <c r="H22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
         <v>33900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>34300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>32100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>24200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-96600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-477800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-52200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-127600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>41100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-76400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>29800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-30900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-178900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>68200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>143900</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-14700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1289,78 +1338,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-478400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-49000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-126100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>37600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-78100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>44500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-32200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-180700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>71000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>141900</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-82400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-397300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-26400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-114800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>41900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-65400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>89400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-146900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>73300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>167500</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1394,43 +1452,49 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>59900</v>
+      </c>
+      <c r="E29" s="3">
         <v>-400</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-130200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>5700</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-93000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>87200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-24300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-1500</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1464,8 +1528,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1499,8 +1566,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1520,57 +1590,63 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-33900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-34300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>118900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-75800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-397700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-156600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-109200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-51100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>21800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>65000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-146900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>73300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>167500</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1604,83 +1680,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-397700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-156600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-109200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-51100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>21800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>65000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-146900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>73300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>167500</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1694,8 +1779,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1709,288 +1795,313 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>129200</v>
+      </c>
+      <c r="E41" s="3">
         <v>100800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>121900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>102100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>142600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>174400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>176300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>160600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>233400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>374400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>221800</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E42" s="3">
         <v>95300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>12800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>30300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>10100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>9600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>16300</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="D43" s="3">
+        <v>84500</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3">
         <v>85800</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3">
         <v>83400</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="I43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="3">
         <v>110400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>119100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>163200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>348200</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3">
+      <c r="D44" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
         <v>19300</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3">
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3">
         <v>19400</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3">
         <v>20600</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>113400</v>
+      </c>
+      <c r="E45" s="3">
         <v>226900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>183900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>371700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>372300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>490900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>603500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>419300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>477100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>172500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>78700</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>351400</v>
+      </c>
+      <c r="E46" s="3">
         <v>422900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>423800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>504100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>627800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>674900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>703300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>699100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>710500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>710100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>675200</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1115700</v>
+      </c>
+      <c r="E47" s="3">
         <v>1212100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1382300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1555100</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1341800</v>
       </c>
       <c r="H47" s="3">
         <v>1341800</v>
       </c>
       <c r="I47" s="3">
+        <v>1341800</v>
+      </c>
+      <c r="J47" s="3">
         <v>1365500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1306400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1202400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1249800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1187400</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1721200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1575800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1850200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1809800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1964700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2227300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2237200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2177600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2324200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2156200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1887100</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2024,8 +2135,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2059,8 +2173,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2094,43 +2211,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>183400</v>
+      </c>
+      <c r="E52" s="3">
         <v>42100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>214700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>164300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>152500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>141300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>192000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>129600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>128700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>182300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>174900</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2164,43 +2287,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3371700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3252900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3870900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4033300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4086800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4385200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4420700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4312700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4365900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4298400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3924500</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2214,8 +2343,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2229,218 +2359,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>57200</v>
+      </c>
+      <c r="E57" s="3">
         <v>158300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>64500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>165500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>68100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>222100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>212200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>297100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>105000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>179600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>679000</v>
+      </c>
+      <c r="E58" s="3">
         <v>503400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>190900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>140900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>136100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>187000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>172100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>175000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>165500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>261500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>475900</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>203100</v>
+      </c>
+      <c r="E59" s="3">
         <v>77800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>189700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>90000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>200000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
         <v>114600</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>166900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>126100</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>939200</v>
+      </c>
+      <c r="E60" s="3">
         <v>739400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>445100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>396300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>404200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>409100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>384300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>472100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>437400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>441100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>647900</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1163900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1127900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1461900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1524400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1444500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1542500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1694700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1534300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1583700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1537100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1030400</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E62" s="3">
         <v>143100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>219400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>239900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>187200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>313300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>245500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>194400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>216500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>120400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>101100</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2474,8 +2623,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2509,8 +2661,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2544,43 +2699,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2150400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2011300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2216500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2268800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2165800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2416300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2473300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2384700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2455000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2271500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1956800</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2594,8 +2755,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2629,8 +2791,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2664,8 +2829,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2699,8 +2867,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2734,43 +2905,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1197700</v>
+      </c>
+      <c r="E72" s="3">
         <v>1206100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1635500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1738600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1897800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1941400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1931000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1866000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1863100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2011000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1937700</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2804,8 +2981,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2839,8 +3019,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2874,43 +3057,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1221200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1241600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1654400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1764500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1920900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1968900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1947500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1928000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1910900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2027000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1967700</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2944,83 +3133,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-397700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-156600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-109200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-51100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>21800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>65000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-146900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>73300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>167500</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3034,8 +3232,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3069,8 +3268,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3104,8 +3306,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3139,8 +3344,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3174,8 +3382,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3209,8 +3420,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3244,8 +3458,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3279,8 +3496,11 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3294,8 +3514,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3329,8 +3550,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3364,8 +3588,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3399,8 +3626,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3434,8 +3664,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3449,8 +3682,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3484,8 +3718,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3519,8 +3756,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3554,8 +3794,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3589,8 +3832,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3624,8 +3870,11 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3659,8 +3908,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3692,6 +3944,9 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEMUF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEMUF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>SEMUF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,128 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>301300</v>
+        <v>171200</v>
       </c>
       <c r="E8" s="3">
+        <v>41900</v>
+      </c>
+      <c r="F8" s="3">
+        <v>292500</v>
+      </c>
+      <c r="G8" s="3">
+        <v>57800</v>
+      </c>
+      <c r="H8" s="3">
         <v>224200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <v>375200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>272000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>145200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>420400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>311700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>263200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>499800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>322700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>155200</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -802,8 +823,17 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +870,17 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -856,8 +895,11 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -894,8 +936,17 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,84 +983,111 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>39800</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="F14" s="3">
+        <v>10700</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-237100</v>
+      </c>
+      <c r="H14" s="3">
         <v>252700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="I14" s="3">
         <v>69500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="J14" s="3">
         <v>11000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="K14" s="3">
         <v>58100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>9400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="M14" s="3">
         <v>72700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="N14" s="3">
         <v>83500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="O14" s="3">
         <v>94500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="P14" s="3">
         <v>-17100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="Q14" s="3">
         <v>-153800</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>50500</v>
+      </c>
+      <c r="G15" s="3">
         <v>59600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="H15" s="3">
         <v>65800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="I15" s="3">
         <v>76500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="J15" s="3">
         <v>78900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="K15" s="3">
         <v>61900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>76300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
         <v>68600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="N15" s="3">
         <v>73300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="O15" s="3">
         <v>73700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="P15" s="3">
         <v>65500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="Q15" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,84 +1099,105 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>397900</v>
+        <v>127100</v>
       </c>
       <c r="E17" s="3">
+        <v>74500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>202300</v>
+      </c>
+      <c r="G17" s="3">
+        <v>-193400</v>
+      </c>
+      <c r="H17" s="3">
         <v>702000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>427400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>399500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>104100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>496900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>281900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>294100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>527700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>306100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-96600</v>
+        <v>44100</v>
       </c>
       <c r="E18" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>90200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>251200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-477800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-52200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>-127500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>41100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-76500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>29800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>-30900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>-27900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>16600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1113,8 +1212,11 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1137,22 +1239,31 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>33900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>34300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>-118900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>75800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="Q20" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1189,8 +1300,17 @@
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1212,99 +1332,126 @@
       <c r="I22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>33900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>34300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>32100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>24200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="Q22" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-96600</v>
+        <v>44100</v>
       </c>
       <c r="E23" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="F23" s="3">
+        <v>90100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>251200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-477800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-52200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>-127600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>41100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-76400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>29800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-30900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-178900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>68200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>143900</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="I24" s="3">
         <v>-3200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="J24" s="3">
         <v>-1500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="K24" s="3">
         <v>3500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>1600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>-14700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>1300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>1800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>-2800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="Q24" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,84 +1488,111 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100700</v>
+        <v>40600</v>
       </c>
       <c r="E26" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="F26" s="3">
+        <v>89100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>249700</v>
+      </c>
+      <c r="H26" s="3">
         <v>-478400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-49000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>-126100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>37600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-78100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>44500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-32200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>-180700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>71000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>141900</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-82400</v>
+        <v>35600</v>
       </c>
       <c r="E27" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>78300</v>
+      </c>
+      <c r="G27" s="3">
+        <v>268000</v>
+      </c>
+      <c r="H27" s="3">
         <v>-397300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-26400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>-114800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>41900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-65400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>89400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>5000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-146900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>73300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>167500</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1455,46 +1629,64 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>59900</v>
+        <v>-5700</v>
       </c>
       <c r="E29" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F29" s="3">
+        <v>11000</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-290600</v>
+      </c>
+      <c r="H29" s="3">
         <v>-400</v>
       </c>
-      <c r="F29" s="3">
+      <c r="I29" s="3">
         <v>-130200</v>
       </c>
-      <c r="G29" s="3">
+      <c r="J29" s="3">
         <v>5700</v>
       </c>
-      <c r="H29" s="3">
+      <c r="K29" s="3">
         <v>-93000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="L29" s="3">
         <v>87200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="M29" s="3">
         <v>-24300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="N29" s="3">
         <v>-1500</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1723,17 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1569,8 +1770,17 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1593,60 +1803,78 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-33900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-34300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>118900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>-75800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="Q32" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="F33" s="3">
+        <v>89300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-22600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-397700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-156600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-109200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-51100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>21800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>65000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>3600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-146900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>73300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>167500</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1683,89 +1911,116 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="F35" s="3">
+        <v>89300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-22600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-397700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-156600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-109200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-51100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>21800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>65000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>3600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-146900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>73300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>167500</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1780,8 +2035,11 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1796,312 +2054,387 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>51200</v>
+      </c>
+      <c r="F41" s="3">
+        <v>36800</v>
+      </c>
+      <c r="G41" s="3">
         <v>129200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>100800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>121900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>102100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>142600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>174400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>176300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>160600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>233400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>374400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>221800</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E42" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F42" s="3">
+        <v>8900</v>
+      </c>
+      <c r="G42" s="3">
         <v>8300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="H42" s="3">
         <v>95300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="I42" s="3">
         <v>12800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="J42" s="3">
         <v>30300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="K42" s="3">
         <v>10100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
         <v>9600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
         <v>16300</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>73400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>80200</v>
+      </c>
+      <c r="F43" s="3">
+        <v>43300</v>
+      </c>
+      <c r="G43" s="3">
         <v>84500</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
         <v>85800</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>83400</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>110400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>119100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>163200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="Q43" s="3">
         <v>348200</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F44" s="3">
+        <v>15200</v>
+      </c>
+      <c r="G44" s="3">
         <v>15900</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
         <v>19300</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>19400</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>20600</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>103300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>80200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>32800</v>
+      </c>
+      <c r="G45" s="3">
         <v>113400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="H45" s="3">
         <v>226900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
         <v>183900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="J45" s="3">
         <v>371700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="K45" s="3">
         <v>372300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>490900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>603500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>419300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>477100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>172500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="Q45" s="3">
         <v>78700</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>233100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>231700</v>
+      </c>
+      <c r="F46" s="3">
+        <v>137000</v>
+      </c>
+      <c r="G46" s="3">
         <v>351400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>422900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>423800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>504100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>627800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>674900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>703300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>699100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>710500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>710100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>675200</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1095600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1093200</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1122200</v>
+      </c>
+      <c r="G47" s="3">
         <v>1115700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="H47" s="3">
         <v>1212100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="I47" s="3">
         <v>1382300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="J47" s="3">
         <v>1555100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="K47" s="3">
         <v>1341800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>1341800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>1365500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>1306400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>1202400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>1249800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="Q47" s="3">
         <v>1187400</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>708400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>720000</v>
+      </c>
+      <c r="F48" s="3">
+        <v>819200</v>
+      </c>
+      <c r="G48" s="3">
         <v>1721200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>1575800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>1850200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>1809800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="K48" s="3">
         <v>1964700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>2227300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>2237200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>2177600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>2324200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>2156200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="Q48" s="3">
         <v>1887100</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2138,8 +2471,17 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2176,8 +2518,17 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2214,46 +2565,64 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>49800</v>
+      </c>
+      <c r="F52" s="3">
+        <v>69400</v>
+      </c>
+      <c r="G52" s="3">
         <v>183400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="H52" s="3">
         <v>42100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="I52" s="3">
         <v>214700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="J52" s="3">
         <v>164300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="K52" s="3">
         <v>152500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>141300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>192000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>129600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>128700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>182300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="Q52" s="3">
         <v>174900</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2290,46 +2659,64 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2083800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2094800</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2147800</v>
+      </c>
+      <c r="G54" s="3">
         <v>3371700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>3252900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>3870900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>4033300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>4086800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>4385200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>4420700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>4312700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>4365900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>4298400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>3924500</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2344,8 +2731,11 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2360,236 +2750,293 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F57" s="3">
+        <v>24100</v>
+      </c>
+      <c r="G57" s="3">
         <v>57200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>158300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>64500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>165500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>68100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>222100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>212200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>297100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>105000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>179600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="Q57" s="3">
         <v>45900</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>75700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>147900</v>
+      </c>
+      <c r="F58" s="3">
+        <v>84100</v>
+      </c>
+      <c r="G58" s="3">
         <v>679000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>503400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>190900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>140900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>136100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>187000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>172100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>175000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>165500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>261500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="Q58" s="3">
         <v>475900</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>141200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>116900</v>
+      </c>
+      <c r="F59" s="3">
+        <v>79300</v>
+      </c>
+      <c r="G59" s="3">
         <v>203100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>77800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>189700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>90000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>200000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>114600</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>166900</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>126100</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>226500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>281600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>187400</v>
+      </c>
+      <c r="G60" s="3">
         <v>939200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>739400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>445100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>396300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>404200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>409100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>384300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>472100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>437400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>441100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>647900</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>471700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>442600</v>
+      </c>
+      <c r="F61" s="3">
+        <v>597600</v>
+      </c>
+      <c r="G61" s="3">
         <v>1163900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="H61" s="3">
         <v>1127900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="I61" s="3">
         <v>1461900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="J61" s="3">
         <v>1524400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="K61" s="3">
         <v>1444500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>1542500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>1694700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>1534300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>1583700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>1537100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="Q61" s="3">
         <v>1030400</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>53200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>66900</v>
+      </c>
+      <c r="G62" s="3">
         <v>56300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="H62" s="3">
         <v>143100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="I62" s="3">
         <v>219400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="J62" s="3">
         <v>239900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="K62" s="3">
         <v>187200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>313300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>245500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>194400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>216500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>120400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="Q62" s="3">
         <v>101100</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2626,8 +3073,17 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2664,8 +3120,17 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2702,46 +3167,64 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>781600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>816500</v>
+      </c>
+      <c r="F66" s="3">
+        <v>901600</v>
+      </c>
+      <c r="G66" s="3">
         <v>2150400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>2011300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>2216500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>2268800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>2165800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>2416300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>2473300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>2384700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>2455000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>2271500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>1956800</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2756,8 +3239,11 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2794,8 +3280,17 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2832,8 +3327,17 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2870,8 +3374,17 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2908,46 +3421,64 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1216100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1292300</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1124000</v>
+      </c>
+      <c r="G72" s="3">
         <v>1197700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>1206100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>1635500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>1738600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>1897800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>1941400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>1931000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>1866000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>1863100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>2011000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>1937700</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2984,8 +3515,17 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3022,8 +3562,17 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3060,46 +3609,64 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1302100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1278300</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1246100</v>
+      </c>
+      <c r="G76" s="3">
         <v>1221200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>1241600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>1654400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>1764500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>1920900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>1968900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>1947500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>1928000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>1910900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>2027000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>1967700</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3136,89 +3703,116 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="F81" s="3">
+        <v>89300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-22600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-397700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-156600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-109200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-51100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>21800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>65000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>3600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-146900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>73300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>167500</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3233,8 +3827,11 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3271,8 +3868,17 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3309,8 +3915,17 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3347,8 +3962,17 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3385,8 +4009,17 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3423,8 +4056,17 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3461,8 +4103,17 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3499,8 +4150,17 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3515,8 +4175,11 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3553,8 +4216,17 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3591,8 +4263,17 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3629,8 +4310,17 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3667,8 +4357,17 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3683,8 +4382,11 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3721,8 +4423,17 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3759,8 +4470,17 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3797,8 +4517,17 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3835,8 +4564,17 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3873,8 +4611,17 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3911,8 +4658,17 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3947,6 +4703,15 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>
